--- a/assets/TambahMember.xlsx
+++ b/assets/TambahMember.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\library\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,13 +79,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,28 +369,30 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
